--- a/biology/Botanique/Délices_d'Hardenpont/Délices_d'Hardenpont.xlsx
+++ b/biology/Botanique/Délices_d'Hardenpont/Délices_d'Hardenpont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9lices_d%27Hardenpont</t>
+          <t>Délices_d'Hardenpont</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Délices d'Hardenpont est le nom d'une variété de poire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9lices_d%27Hardenpont</t>
+          <t>Délices_d'Hardenpont</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La poire est  obtenue en 1759, nous dit Alexandre Bivort[1], par l'abbé d'Hardenpont, dans son jardin , au pied du mont Panisel, à Mons (Belgique), en même temps que le semis de "Beurré d'Hardenpont"[2]."Fondante du Panisel"
-Voir Alexandre Lucas[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poire est  obtenue en 1759, nous dit Alexandre Bivort, par l'abbé d'Hardenpont, dans son jardin , au pied du mont Panisel, à Mons (Belgique), en même temps que le semis de "Beurré d'Hardenpont"."Fondante du Panisel"
+Voir Alexandre Lucas.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9lices_d%27Hardenpont</t>
+          <t>Délices_d'Hardenpont</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Archiduc Charles.</t>
         </is>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9lices_d%27Hardenpont</t>
+          <t>Délices_d'Hardenpont</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,16 +591,56 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description de l'arbre
-L'arbre est vigoureux et fertile[1], surtout sur franc, il se refuse cependant à la forme pyramidale : ce qu'il lui faut, c'est le plein vent[2].
-Description du fruit
-Fruit : assez gros.
+          <t>Description de l'arbre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre est vigoureux et fertile, surtout sur franc, il se refuse cependant à la forme pyramidale : ce qu'il lui faut, c'est le plein vent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Délices_d'Hardenpont</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9lices_d%27Hardenpont</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Description du fruit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fruit : assez gros.
 Epiderme : ponctué, rouge à l'insolation.
 Pédicelle : moyen.
 Œil : moyen ou petit, ouvert ou mi clos, inséré dans une cavité peu profonde, étroite, plissée, bosselée ou presque côtelée sur les bords.
 Chair : blanche, fine, bonne.
 Qualité : très bonne.
-Maturité : octobre-novembre[4].
+Maturité : octobre-novembre.
 </t>
         </is>
       </c>
